--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3525.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3525.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.685441632979382</v>
+        <v>1.45642352104187</v>
       </c>
       <c r="B1">
-        <v>2.524991356939717</v>
+        <v>1.926920652389526</v>
       </c>
       <c r="C1">
-        <v>2.944160814203399</v>
+        <v>2.056244373321533</v>
       </c>
       <c r="D1">
-        <v>3.372771528864928</v>
+        <v>1.632256388664246</v>
       </c>
       <c r="E1">
-        <v>2.135843549609632</v>
+        <v>1.428162217140198</v>
       </c>
     </row>
   </sheetData>
